--- a/data/trans_dic/P6-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -534,7 +535,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha experimentado cambio de convivientes en sus viviendas</t>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,94%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,39%</t>
+          <t>21,32%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,94%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,43%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>16,14%</t>
+          <t>12,52%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>23,69%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>30,23%</t>
+          <t>29,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>10,41%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>12,45%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>19,78%</t>
+          <t>22,58%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>27,78%</t>
         </is>
       </c>
     </row>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,14; 17,67</t>
+          <t>3,06; 25,72</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 19,81</t>
+          <t>3,16; 26,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7,04; 26,68</t>
+          <t>7,04; 37,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,77; 28,82</t>
+          <t>10,33; 43,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,55; 20,8</t>
+          <t>4,23; 22,33</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,25; 29,88</t>
+          <t>4,87; 23,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,13; 40,82</t>
+          <t>13,35; 38,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 46,75</t>
+          <t>16,89; 44,15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>5,78; 15,63</t>
+          <t>5,15; 18,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>7,46; 19,59</t>
+          <t>5,51; 20,54</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,9; 28,55</t>
+          <t>14,19; 32,95</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>15,5; 32,09</t>
+          <t>18,58; 39,18</t>
         </is>
       </c>
     </row>
@@ -796,32 +797,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>17,85%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>14,1%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>5,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,89%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -831,27 +832,27 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>27,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>11,44%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,08%</t>
+          <t>20,18%</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2,98; 16,51</t>
+          <t>0,0; 15,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,92; 21,88</t>
+          <t>0,0; 16,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,05; 28,84</t>
+          <t>2,46; 22,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,43; 35,8</t>
+          <t>5,28; 29,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,63; 13,29</t>
+          <t>1,55; 13,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,87; 20,2</t>
+          <t>3,15; 17,91</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,88; 25,58</t>
+          <t>7,14; 27,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 32,69</t>
+          <t>16,54; 40,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 12,06</t>
+          <t>1,76; 9,98</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,19; 17,1</t>
+          <t>2,6; 12,2</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,93; 24,55</t>
+          <t>6,78; 20,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,17; 30,43</t>
+          <t>12,45; 29,79</t>
         </is>
       </c>
     </row>
@@ -936,62 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>8,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>11,71%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,68%</t>
+          <t>19,28%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>7,09%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>10,61%</t>
+          <t>11,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>7,55%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>10,05%</t>
+          <t>8,85%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>10,75%</t>
+          <t>11,67%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>12,6%</t>
+          <t>14,44%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,6; 12,16</t>
+          <t>3,16; 17,89</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,59; 37,29</t>
+          <t>4,83; 22,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 22,39</t>
+          <t>7,76; 26,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,82; 23,83</t>
+          <t>10,17; 32,97</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,73; 10,4</t>
+          <t>3,6; 12,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,72; 10,18</t>
+          <t>3,65; 12,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,65; 13,86</t>
+          <t>5,39; 16,46</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,6; 16,4</t>
+          <t>6,26; 18,38</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,46</t>
+          <t>4,21; 12,05</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 21,13</t>
+          <t>5,36; 13,94</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>7,06; 15,7</t>
+          <t>7,24; 17,26</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 17,21</t>
+          <t>9,28; 20,8</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,68%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,32%</t>
+          <t>11,41%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>11,77%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,44%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>8,64%</t>
+          <t>7,61%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>9,72%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14,21%</t>
+          <t>14,3%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>16,33%</t>
+          <t>15,95%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,7; 9,86</t>
+          <t>1,22; 9,81</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>3,76; 13,36</t>
+          <t>3,83; 15,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,73; 18,04</t>
+          <t>5,68; 20,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 18,71</t>
+          <t>5,86; 20,31</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,71; 17,37</t>
+          <t>5,65; 17,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,7; 17,32</t>
+          <t>5,42; 17,27</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>11,4; 22,56</t>
+          <t>10,45; 24,44</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,5; 26,56</t>
+          <t>13,18; 28,59</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,01; 12,14</t>
+          <t>4,6; 12,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 13,58</t>
+          <t>5,81; 14,09</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>10,89; 18,78</t>
+          <t>10,18; 20,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,55; 20,74</t>
+          <t>11,33; 21,9</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,46%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>10,64%</t>
+          <t>10,54%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,19%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>20,91%</t>
+          <t>28,04%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>24,72%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>9,7%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>15,54%</t>
+          <t>17,81%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>18,78%</t>
+          <t>19,71%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,16; 14,44</t>
+          <t>2,67; 15,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,44; 16,61</t>
+          <t>3,76; 17,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,97; 18,0</t>
+          <t>4,86; 18,86</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>7,9; 20,68</t>
+          <t>6,26; 21,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,53; 19,32</t>
+          <t>5,42; 22,6</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>7,62; 20,96</t>
+          <t>7,57; 26,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,63; 29,12</t>
+          <t>16,32; 40,54</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 33,72</t>
+          <t>18,63; 43,2</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6,81; 14,44</t>
+          <t>5,35; 15,93</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,88; 16,39</t>
+          <t>6,94; 18,81</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>11,09; 20,98</t>
+          <t>12,08; 26,05</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 24,61</t>
+          <t>13,7; 28,23</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>2,73%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>9,5%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6,4%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>8,97%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9,33%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>4,71%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
           <t>6,21%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,09%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>9,4%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>8,31%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>8,11%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>8,29%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,57%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>7,39%</t>
-        </is>
-      </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>9,41%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,45; 13,82</t>
+          <t>0,0; 13,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>2,37; 12,9</t>
+          <t>0,0; 13,58</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,34; 13,13</t>
+          <t>0,0; 12,48</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,46; 17,79</t>
+          <t>2,42; 22,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>2,96; 15,02</t>
+          <t>1,88; 17,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,69; 16,29</t>
+          <t>2,35; 20,23</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,41; 16,68</t>
+          <t>2,34; 20,18</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,2; 16,09</t>
+          <t>2,5; 21,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,4; 11,63</t>
+          <t>1,22; 10,87</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,06; 12,33</t>
+          <t>2,28; 12,7</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 12,63</t>
+          <t>2,17; 12,27</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,51; 14,65</t>
+          <t>4,08; 18,05</t>
         </is>
       </c>
     </row>
@@ -1496,52 +1497,52 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>7,76%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,56%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,18%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>9,02%</t>
+          <t>8,65%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,58%</t>
+          <t>9,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>16,05%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,53%</t>
+          <t>20,17%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,96%</t>
+          <t>7,45%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>10,37%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1551,7 +1552,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>16,88%</t>
+          <t>17,89%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,97; 9,21</t>
+          <t>3,84; 9,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 15,66</t>
+          <t>5,05; 11,21</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10,1; 15,94</t>
+          <t>8,04; 16,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,27; 18,61</t>
+          <t>11,14; 20,87</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,05; 11,44</t>
+          <t>5,93; 11,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,4; 13,14</t>
+          <t>7,15; 13,46</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>12,64; 18,41</t>
+          <t>12,44; 19,88</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,11; 22,0</t>
+          <t>16,41; 24,73</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 9,68</t>
+          <t>5,76; 9,63</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>8,69; 13,3</t>
+          <t>7,03; 11,27</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>11,96; 16,3</t>
+          <t>11,61; 16,84</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>14,61; 19,37</t>
+          <t>14,64; 20,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1639,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha experimentado cambio de convivientes en sus viviendas (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>8196</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>10731</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22535</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>32960</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>13000</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>16780</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28443</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>36507</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21196</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>27512</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>50978</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>69466</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>2632; 22144</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3383; 28288</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7441; 40159</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>13176; 55058</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4967; 26257</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6528; 31442</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>16035; 45943</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>20697; 54099</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10494; 38280</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>13292; 49501</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>32046; 74406</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>46468; 97989</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>5731</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>7142</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>12431</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>21759</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>7336</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>14044</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>20382</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>34864</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13067</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>21186</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>32813</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>56624</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>0; 21585</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 27169</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>3521; 32006</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>8147; 45089</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2061; 18349</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5199; 29568</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>9041; 35028</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>20896; 50989</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>4768; 26957</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>8688; 40720</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>18321; 55650</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>34936; 83577</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11553</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>18972</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>20454</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26540</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>15258</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>18723</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>19643</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>22286</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26811</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>37696</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>40097</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>48827</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>4409; 25003</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7833; 36107</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>10422; 35826</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>14000; 45375</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7759; 27217</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9650; 33546</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>11293; 34462</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12551; 36844</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14934; 42778</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22857; 59422</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>24869; 59316</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>31367; 70311</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>6543</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>14726</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>18837</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>17830</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>20446</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>23096</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>30815</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>34583</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>26989</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>37821</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>49652</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52413</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1994; 16035</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>7158; 29611</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9163; 33001</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>9158; 31723</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>10799; 33456</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>11832; 37703</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>19433; 45450</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>22739; 49299</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>16322; 45451</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>23553; 57086</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>35336; 70049</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>37237; 71979</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>11322</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14588</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>13919</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>14663</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>12190</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>18406</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26304</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>27890</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>23512</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32994</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>40223</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>42553</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3704; 21949</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>5913; 27022</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>6414; 24903</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>7711; 26120</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5606; 23388</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8792; 30995</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>15311; 38033</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17260; 40035</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>12976; 38614</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>18978; 51465</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>27295; 58836</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>29574; 60935</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2440</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>2987</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2156</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>8563</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>6847</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>12339</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>9387</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>10319</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>9287</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>15326</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>11542</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>18882</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 12139</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 14849</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 10902</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>2179; 20573</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>2011; 18218</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>3233; 27841</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2463; 21221</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2769; 23463</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>2412; 21436</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>5625; 31362</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4172; 23619</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>8182; 36229</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>45785</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>69147</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>90330</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>122314</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>75077</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>103388</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>134974</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>166449</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>120862</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>172535</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>225304</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>288764</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>28982; 69779</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>44977; 99938</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>61397; 124043</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>87930; 164651</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>51481; 100573</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>73999; 139350</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>104649; 167170</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>135391; 204067</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>93526; 156341</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>135348; 217198</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>186346; 270335</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>236305; 338489</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>